--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H2">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I2">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J2">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>150.09522408474</v>
+        <v>2.0990289852</v>
       </c>
       <c r="R2">
-        <v>1350.85701676266</v>
+        <v>18.8912608668</v>
       </c>
       <c r="S2">
-        <v>0.1336007205323474</v>
+        <v>0.001166465785754781</v>
       </c>
       <c r="T2">
-        <v>0.1336007205323473</v>
+        <v>0.001166465785754781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H3">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I3">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J3">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>444.033559323024</v>
+        <v>6.030330832533333</v>
       </c>
       <c r="R3">
-        <v>3996.302033907216</v>
+        <v>54.2729774928</v>
       </c>
       <c r="S3">
-        <v>0.3952371158232617</v>
+        <v>0.003351156483559489</v>
       </c>
       <c r="T3">
-        <v>0.3952371158232617</v>
+        <v>0.003351156483559489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H4">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I4">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J4">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>39.52072592410801</v>
+        <v>0.6277879624</v>
       </c>
       <c r="R4">
-        <v>355.686533316972</v>
+        <v>5.6500916616</v>
       </c>
       <c r="S4">
-        <v>0.03517765133180583</v>
+        <v>0.0003488723519358806</v>
       </c>
       <c r="T4">
-        <v>0.03517765133180582</v>
+        <v>0.0003488723519358806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H5">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I5">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J5">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>93.263061495252</v>
+        <v>0.6337985262666667</v>
       </c>
       <c r="R5">
-        <v>839.3675534572679</v>
+        <v>5.704186736400001</v>
       </c>
       <c r="S5">
-        <v>0.08301404852018261</v>
+        <v>0.00035221252358334</v>
       </c>
       <c r="T5">
-        <v>0.08301404852018258</v>
+        <v>0.00035221252358334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H6">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I6">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J6">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>11.363960865708</v>
+        <v>0.1520458174666666</v>
       </c>
       <c r="R6">
-        <v>102.275647791372</v>
+        <v>1.3684123572</v>
       </c>
       <c r="S6">
-        <v>0.01011513436898452</v>
+        <v>8.449442346556465E-05</v>
       </c>
       <c r="T6">
-        <v>0.01011513436898452</v>
+        <v>8.449442346556465E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.974788</v>
+        <v>0.0404</v>
       </c>
       <c r="H7">
-        <v>8.924364000000001</v>
+        <v>0.1212</v>
       </c>
       <c r="I7">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="J7">
-        <v>0.7032830172353263</v>
+        <v>0.005621089064672113</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>51.834641707392</v>
+        <v>0.5720314106666667</v>
       </c>
       <c r="R7">
-        <v>466.511775366528</v>
+        <v>5.148282696000001</v>
       </c>
       <c r="S7">
-        <v>0.04613834665874425</v>
+        <v>0.0003178874963730581</v>
       </c>
       <c r="T7">
-        <v>0.04613834665874424</v>
+        <v>0.0003178874963730581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H8">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I8">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J8">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>32.70496027379778</v>
+        <v>154.558570218444</v>
       </c>
       <c r="R8">
-        <v>294.34464246418</v>
+        <v>1391.027131965996</v>
       </c>
       <c r="S8">
-        <v>0.02911089466174036</v>
+        <v>0.08589080252163102</v>
       </c>
       <c r="T8">
-        <v>0.02911089466174034</v>
+        <v>0.08589080252163102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H9">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I9">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J9">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
-        <v>96.75257828119645</v>
+        <v>444.033559323024</v>
       </c>
       <c r="R9">
-        <v>870.773204530768</v>
+        <v>3996.302033907216</v>
       </c>
       <c r="S9">
-        <v>0.08612008976669616</v>
+        <v>0.2467569330053209</v>
       </c>
       <c r="T9">
-        <v>0.08612008976669613</v>
+        <v>0.2467569330053209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H10">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I10">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J10">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>8.611358417439556</v>
+        <v>46.22614101712801</v>
       </c>
       <c r="R10">
-        <v>77.50222575695601</v>
+        <v>416.035269154152</v>
       </c>
       <c r="S10">
-        <v>0.007665025295426354</v>
+        <v>0.02568864569481769</v>
       </c>
       <c r="T10">
-        <v>0.007665025295426352</v>
+        <v>0.02568864569481768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H11">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I11">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J11">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>20.32153081361822</v>
+        <v>46.66871906821201</v>
       </c>
       <c r="R11">
-        <v>182.893777322564</v>
+        <v>420.018471613908</v>
       </c>
       <c r="S11">
-        <v>0.01808832476566269</v>
+        <v>0.0259345937773623</v>
       </c>
       <c r="T11">
-        <v>0.01808832476566268</v>
+        <v>0.0259345937773623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H12">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I12">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J12">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>2.476147332017334</v>
+        <v>11.195645377476</v>
       </c>
       <c r="R12">
-        <v>22.285325988156</v>
+        <v>100.760808397284</v>
       </c>
       <c r="S12">
-        <v>0.002204034603492749</v>
+        <v>0.006221608836442578</v>
       </c>
       <c r="T12">
-        <v>0.002204034603492749</v>
+        <v>0.006221608836442578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6481906666666667</v>
+        <v>2.974788</v>
       </c>
       <c r="H13">
-        <v>1.944572</v>
+        <v>8.924364000000001</v>
       </c>
       <c r="I13">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="J13">
-        <v>0.1532416722795409</v>
+        <v>0.4138997103098472</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>11.29449593206044</v>
+        <v>42.12059841768001</v>
       </c>
       <c r="R13">
-        <v>101.650463388544</v>
+        <v>379.0853857591201</v>
       </c>
       <c r="S13">
-        <v>0.01005330318652261</v>
+        <v>0.0234071264742727</v>
       </c>
       <c r="T13">
-        <v>0.0100533031865226</v>
+        <v>0.0234071264742727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H14">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I14">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J14">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>3.133555699358334</v>
+        <v>90.124580474922</v>
       </c>
       <c r="R14">
-        <v>28.20200129422501</v>
+        <v>811.1212242742981</v>
       </c>
       <c r="S14">
-        <v>0.002789198002903546</v>
+        <v>0.05008374840020759</v>
       </c>
       <c r="T14">
-        <v>0.002789198002903545</v>
+        <v>0.05008374840020759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H15">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I15">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J15">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>9.270140998873334</v>
+        <v>258.9202151276009</v>
       </c>
       <c r="R15">
-        <v>83.43126898986</v>
+        <v>2330.281936148408</v>
       </c>
       <c r="S15">
-        <v>0.008251411891604938</v>
+        <v>0.1438863275905818</v>
       </c>
       <c r="T15">
-        <v>0.008251411891604936</v>
+        <v>0.1438863275905819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H16">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I16">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J16">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>0.8250788572216667</v>
+        <v>26.95490492863067</v>
       </c>
       <c r="R16">
-        <v>7.425709714995001</v>
+        <v>242.594144357676</v>
       </c>
       <c r="S16">
-        <v>0.0007344079766228049</v>
+        <v>0.01497929498792734</v>
       </c>
       <c r="T16">
-        <v>0.0007344079766228048</v>
+        <v>0.01497929498792734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H17">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I17">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J17">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>1.947063936711666</v>
+        <v>27.21297642298378</v>
       </c>
       <c r="R17">
-        <v>17.523575430405</v>
+        <v>244.916787806854</v>
       </c>
       <c r="S17">
-        <v>0.001733094083795531</v>
+        <v>0.01512270966707854</v>
       </c>
       <c r="T17">
-        <v>0.001733094083795531</v>
+        <v>0.01512270966707854</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H18">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I18">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J18">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>0.237246751555</v>
+        <v>6.528287893482443</v>
       </c>
       <c r="R18">
-        <v>2.135220763995</v>
+        <v>58.75459104134199</v>
       </c>
       <c r="S18">
-        <v>0.0002111748534637707</v>
+        <v>0.003627879615287372</v>
       </c>
       <c r="T18">
-        <v>0.0002111748534637707</v>
+        <v>0.003627879615287372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.062105</v>
+        <v>1.734627333333333</v>
       </c>
       <c r="H19">
-        <v>0.186315</v>
+        <v>5.203882</v>
       </c>
       <c r="I19">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="J19">
-        <v>0.01468252251434386</v>
+        <v>0.2413488795713205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>1.082157929653333</v>
+        <v>24.56092377395111</v>
       </c>
       <c r="R19">
-        <v>9.739421366879998</v>
+        <v>221.04831396556</v>
       </c>
       <c r="S19">
-        <v>0.0009632357059532685</v>
+        <v>0.01364891931023781</v>
       </c>
       <c r="T19">
-        <v>0.0009632357059532683</v>
+        <v>0.01364891931023781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H20">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I20">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J20">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>27.48705982829889</v>
+        <v>16.005009418545</v>
       </c>
       <c r="R20">
-        <v>247.38353845469</v>
+        <v>144.045084766905</v>
       </c>
       <c r="S20">
-        <v>0.02446640804708874</v>
+        <v>0.008894253494854388</v>
       </c>
       <c r="T20">
-        <v>0.02446640804708874</v>
+        <v>0.008894253494854388</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H21">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I21">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J21">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>81.31622498523821</v>
+        <v>45.98102382204222</v>
       </c>
       <c r="R21">
-        <v>731.846024867144</v>
+        <v>413.82921439838</v>
       </c>
       <c r="S21">
-        <v>0.07238009280604958</v>
+        <v>0.02555242993811125</v>
       </c>
       <c r="T21">
-        <v>0.07238009280604957</v>
+        <v>0.02555242993811125</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H22">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I22">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J22">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>7.237462514599777</v>
+        <v>4.786857314456667</v>
       </c>
       <c r="R22">
-        <v>65.137162631398</v>
+        <v>43.08171583011</v>
       </c>
       <c r="S22">
-        <v>0.006442111750540978</v>
+        <v>0.00266013729108733</v>
       </c>
       <c r="T22">
-        <v>0.006442111750540977</v>
+        <v>0.00266013729108733</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H23">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I23">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J23">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>17.07933991052911</v>
+        <v>4.832687615979444</v>
       </c>
       <c r="R23">
-        <v>153.714059194762</v>
+        <v>43.494188543815</v>
       </c>
       <c r="S23">
-        <v>0.01520242987195457</v>
+        <v>0.002685605962103348</v>
       </c>
       <c r="T23">
-        <v>0.01520242987195456</v>
+        <v>0.002685605962103348</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5447753333333333</v>
+        <v>0.3080483333333333</v>
       </c>
       <c r="H24">
-        <v>1.634326</v>
+        <v>0.924145</v>
       </c>
       <c r="I24">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="J24">
-        <v>0.1287927879707889</v>
+        <v>0.04286057222501163</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>2.081091347888667</v>
+        <v>1.159343085666111</v>
       </c>
       <c r="R24">
-        <v>18.729822130998</v>
+        <v>10.434087770995</v>
       </c>
       <c r="S24">
-        <v>0.001852392741121383</v>
+        <v>0.0006442664931813882</v>
       </c>
       <c r="T24">
-        <v>0.001852392741121383</v>
+        <v>0.0006442664931813882</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3080483333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.924145</v>
+      </c>
+      <c r="I25">
+        <v>0.04286057222501163</v>
+      </c>
+      <c r="J25">
+        <v>0.04286057222501163</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.15919333333333</v>
+      </c>
+      <c r="N25">
+        <v>42.47758</v>
+      </c>
+      <c r="O25">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="P25">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="Q25">
+        <v>4.361715907677778</v>
+      </c>
+      <c r="R25">
+        <v>39.2554431691</v>
+      </c>
+      <c r="S25">
+        <v>0.002423879045673926</v>
+      </c>
+      <c r="T25">
+        <v>0.002423879045673926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.77113</v>
+      </c>
+      <c r="I26">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J26">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>51.956163</v>
+      </c>
+      <c r="N26">
+        <v>155.868489</v>
+      </c>
+      <c r="O26">
+        <v>0.2075159764120945</v>
+      </c>
+      <c r="P26">
+        <v>0.2075159764120945</v>
+      </c>
+      <c r="Q26">
+        <v>82.62986932473001</v>
+      </c>
+      <c r="R26">
+        <v>743.6688239225701</v>
+      </c>
+      <c r="S26">
+        <v>0.04591881109231194</v>
+      </c>
+      <c r="T26">
+        <v>0.04591881109231194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H27">
+        <v>4.77113</v>
+      </c>
+      <c r="I27">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J27">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N27">
+        <v>447.796844</v>
+      </c>
+      <c r="O27">
+        <v>0.5961756600906958</v>
+      </c>
+      <c r="P27">
+        <v>0.5961756600906958</v>
+      </c>
+      <c r="Q27">
+        <v>237.3885507015245</v>
+      </c>
+      <c r="R27">
+        <v>2136.49695631372</v>
+      </c>
+      <c r="S27">
+        <v>0.1319208187574685</v>
+      </c>
+      <c r="T27">
+        <v>0.1319208187574685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H28">
+        <v>4.77113</v>
+      </c>
+      <c r="I28">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J28">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>15.539306</v>
+      </c>
+      <c r="N28">
+        <v>46.617918</v>
+      </c>
+      <c r="O28">
+        <v>0.06206490377967901</v>
+      </c>
+      <c r="P28">
+        <v>0.06206490377967901</v>
+      </c>
+      <c r="Q28">
+        <v>24.71334967859334</v>
+      </c>
+      <c r="R28">
+        <v>222.42014710734</v>
+      </c>
+      <c r="S28">
+        <v>0.01373362495455312</v>
+      </c>
+      <c r="T28">
+        <v>0.01373362495455312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H29">
+        <v>4.77113</v>
+      </c>
+      <c r="I29">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J29">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>15.68808233333333</v>
+      </c>
+      <c r="N29">
+        <v>47.064247</v>
+      </c>
+      <c r="O29">
+        <v>0.06265912522129466</v>
+      </c>
+      <c r="P29">
+        <v>0.06265912522129466</v>
+      </c>
+      <c r="Q29">
+        <v>24.94996008767889</v>
+      </c>
+      <c r="R29">
+        <v>224.54964078911</v>
+      </c>
+      <c r="S29">
+        <v>0.01386511334689918</v>
+      </c>
+      <c r="T29">
+        <v>0.01386511334689918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H30">
+        <v>4.77113</v>
+      </c>
+      <c r="I30">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J30">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.763510333333333</v>
+      </c>
+      <c r="N30">
+        <v>11.290531</v>
+      </c>
+      <c r="O30">
+        <v>0.01503168202699406</v>
+      </c>
+      <c r="P30">
+        <v>0.01503168202699406</v>
+      </c>
+      <c r="Q30">
+        <v>5.985399018892221</v>
+      </c>
+      <c r="R30">
+        <v>53.86859117002999</v>
+      </c>
+      <c r="S30">
+        <v>0.003326187117403131</v>
+      </c>
+      <c r="T30">
+        <v>0.003326187117403131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.5447753333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.634326</v>
-      </c>
-      <c r="I25">
-        <v>0.1287927879707889</v>
-      </c>
-      <c r="J25">
-        <v>0.1287927879707889</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.42465066666666</v>
-      </c>
-      <c r="N25">
-        <v>52.27395199999999</v>
-      </c>
-      <c r="O25">
-        <v>0.06560423830525379</v>
-      </c>
-      <c r="P25">
-        <v>0.06560423830525378</v>
-      </c>
-      <c r="Q25">
-        <v>9.49251987515022</v>
-      </c>
-      <c r="R25">
-        <v>85.43267887635199</v>
-      </c>
-      <c r="S25">
-        <v>0.008449352754033659</v>
-      </c>
-      <c r="T25">
-        <v>0.008449352754033657</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.590376666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.77113</v>
+      </c>
+      <c r="I31">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="J31">
+        <v>0.2212784378641012</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.15919333333333</v>
+      </c>
+      <c r="N31">
+        <v>42.47758</v>
+      </c>
+      <c r="O31">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="P31">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="Q31">
+        <v>22.51845069615556</v>
+      </c>
+      <c r="R31">
+        <v>202.6660562654</v>
+      </c>
+      <c r="S31">
+        <v>0.01251388259546526</v>
+      </c>
+      <c r="T31">
+        <v>0.01251388259546526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.538979</v>
+      </c>
+      <c r="H32">
+        <v>1.616937</v>
+      </c>
+      <c r="I32">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J32">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>51.956163</v>
+      </c>
+      <c r="N32">
+        <v>155.868489</v>
+      </c>
+      <c r="O32">
+        <v>0.2075159764120945</v>
+      </c>
+      <c r="P32">
+        <v>0.2075159764120945</v>
+      </c>
+      <c r="Q32">
+        <v>28.003280777577</v>
+      </c>
+      <c r="R32">
+        <v>252.029526998193</v>
+      </c>
+      <c r="S32">
+        <v>0.0155618951173348</v>
+      </c>
+      <c r="T32">
+        <v>0.0155618951173348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.538979</v>
+      </c>
+      <c r="H33">
+        <v>1.616937</v>
+      </c>
+      <c r="I33">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J33">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N33">
+        <v>447.796844</v>
+      </c>
+      <c r="O33">
+        <v>0.5961756600906958</v>
+      </c>
+      <c r="P33">
+        <v>0.5961756600906958</v>
+      </c>
+      <c r="Q33">
+        <v>80.45103172742533</v>
+      </c>
+      <c r="R33">
+        <v>724.0592855468281</v>
+      </c>
+      <c r="S33">
+        <v>0.04470799431565371</v>
+      </c>
+      <c r="T33">
+        <v>0.04470799431565371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.538979</v>
+      </c>
+      <c r="H34">
+        <v>1.616937</v>
+      </c>
+      <c r="I34">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J34">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>15.539306</v>
+      </c>
+      <c r="N34">
+        <v>46.617918</v>
+      </c>
+      <c r="O34">
+        <v>0.06206490377967901</v>
+      </c>
+      <c r="P34">
+        <v>0.06206490377967901</v>
+      </c>
+      <c r="Q34">
+        <v>8.375359608574001</v>
+      </c>
+      <c r="R34">
+        <v>75.37823647716601</v>
+      </c>
+      <c r="S34">
+        <v>0.004654328499357648</v>
+      </c>
+      <c r="T34">
+        <v>0.004654328499357648</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.538979</v>
+      </c>
+      <c r="H35">
+        <v>1.616937</v>
+      </c>
+      <c r="I35">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J35">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>15.68808233333333</v>
+      </c>
+      <c r="N35">
+        <v>47.064247</v>
+      </c>
+      <c r="O35">
+        <v>0.06265912522129466</v>
+      </c>
+      <c r="P35">
+        <v>0.06265912522129466</v>
+      </c>
+      <c r="Q35">
+        <v>8.455546927937666</v>
+      </c>
+      <c r="R35">
+        <v>76.09992235143901</v>
+      </c>
+      <c r="S35">
+        <v>0.004698889944267945</v>
+      </c>
+      <c r="T35">
+        <v>0.004698889944267946</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.538979</v>
+      </c>
+      <c r="H36">
+        <v>1.616937</v>
+      </c>
+      <c r="I36">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J36">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.763510333333333</v>
+      </c>
+      <c r="N36">
+        <v>11.290531</v>
+      </c>
+      <c r="O36">
+        <v>0.01503168202699406</v>
+      </c>
+      <c r="P36">
+        <v>0.01503168202699406</v>
+      </c>
+      <c r="Q36">
+        <v>2.028453035949666</v>
+      </c>
+      <c r="R36">
+        <v>18.256077323547</v>
+      </c>
+      <c r="S36">
+        <v>0.001127245541214024</v>
+      </c>
+      <c r="T36">
+        <v>0.001127245541214024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.538979</v>
+      </c>
+      <c r="H37">
+        <v>1.616937</v>
+      </c>
+      <c r="I37">
+        <v>0.0749913109650473</v>
+      </c>
+      <c r="J37">
+        <v>0.07499131096504731</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>14.15919333333333</v>
+      </c>
+      <c r="N37">
+        <v>42.47758</v>
+      </c>
+      <c r="O37">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="P37">
+        <v>0.05655265246924192</v>
+      </c>
+      <c r="Q37">
+        <v>7.631507863606667</v>
+      </c>
+      <c r="R37">
+        <v>68.68357077246</v>
+      </c>
+      <c r="S37">
+        <v>0.004240957547219171</v>
+      </c>
+      <c r="T37">
+        <v>0.004240957547219172</v>
       </c>
     </row>
   </sheetData>
